--- a/data/listados/Cercano/L_C_Sirenas.xlsx
+++ b/data/listados/Cercano/L_C_Sirenas.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2ef5c481a427bbc/Trabajo/Value Creation Analytics SAS/Clientes/ICESI/Producto 3. TrabajoCampoyAnalisis/3. Listados/Cercano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Cercano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{99571054-6FE2-470E-8D18-EF59E5BFEFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51166E73-02C4-4AC8-8340-7B5D7A2644D8}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{99571054-6FE2-470E-8D18-EF59E5BFEFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC1EA20-2105-4000-AC70-00648830BB40}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$B$3:$G$53</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Cédula</t>
   </si>
@@ -335,6 +339,165 @@
   </si>
   <si>
     <t>AMILVIA LORENA SINISTERRA</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0.988909297855571</t>
+  </si>
+  <si>
+    <t>0.397745453286916</t>
+  </si>
+  <si>
+    <t>0.115697778761387</t>
+  </si>
+  <si>
+    <t>0.0697486787103117</t>
+  </si>
+  <si>
+    <t>0.243749390589073</t>
+  </si>
+  <si>
+    <t>0.792010425822809</t>
+  </si>
+  <si>
+    <t>0.340062352828681</t>
+  </si>
+  <si>
+    <t>0.972062500659376</t>
+  </si>
+  <si>
+    <t>0.165855484548956</t>
+  </si>
+  <si>
+    <t>0.459103665780276</t>
+  </si>
+  <si>
+    <t>0.171748076798394</t>
+  </si>
+  <si>
+    <t>0.231477101799101</t>
+  </si>
+  <si>
+    <t>0.772811945760623</t>
+  </si>
+  <si>
+    <t>0.0963015416637063</t>
+  </si>
+  <si>
+    <t>0.453447770094499</t>
+  </si>
+  <si>
+    <t>0.0847007129341364</t>
+  </si>
+  <si>
+    <t>0.56066586705856</t>
+  </si>
+  <si>
+    <t>0.00870459992438555</t>
+  </si>
+  <si>
+    <t>0.985737090697512</t>
+  </si>
+  <si>
+    <t>0.316584804095328</t>
+  </si>
+  <si>
+    <t>0.63944894191809</t>
+  </si>
+  <si>
+    <t>0.295223235385492</t>
+  </si>
+  <si>
+    <t>0.996703693876043</t>
+  </si>
+  <si>
+    <t>0.906021320261061</t>
+  </si>
+  <si>
+    <t>0.988739144057035</t>
+  </si>
+  <si>
+    <t>0.0656457394361496</t>
+  </si>
+  <si>
+    <t>0.627038758480921</t>
+  </si>
+  <si>
+    <t>0.490475040860474</t>
+  </si>
+  <si>
+    <t>0.971024412894621</t>
+  </si>
+  <si>
+    <t>0.362220847513527</t>
+  </si>
+  <si>
+    <t>0.679993461119011</t>
+  </si>
+  <si>
+    <t>0.263719930313528</t>
+  </si>
+  <si>
+    <t>0.185714261373505</t>
+  </si>
+  <si>
+    <t>0.185143221635371</t>
+  </si>
+  <si>
+    <t>0.379296746570617</t>
+  </si>
+  <si>
+    <t>0.847024392103776</t>
+  </si>
+  <si>
+    <t>0.498076133430004</t>
+  </si>
+  <si>
+    <t>0.790585573529825</t>
+  </si>
+  <si>
+    <t>0.838463871972635</t>
+  </si>
+  <si>
+    <t>0.456903864862397</t>
+  </si>
+  <si>
+    <t>0.7994758146815</t>
+  </si>
+  <si>
+    <t>0.381943061249331</t>
+  </si>
+  <si>
+    <t>0.759701231494546</t>
+  </si>
+  <si>
+    <t>0.436775602167472</t>
+  </si>
+  <si>
+    <t>0.90421772073023</t>
+  </si>
+  <si>
+    <t>0.319534913869575</t>
+  </si>
+  <si>
+    <t>0.0825690927449614</t>
+  </si>
+  <si>
+    <t>0.816289079375565</t>
+  </si>
+  <si>
+    <t>0.898476220667362</t>
+  </si>
+  <si>
+    <t>0.966496397741139</t>
+  </si>
+  <si>
+    <t>r$&gt; set.seed(7)</t>
+  </si>
+  <si>
+    <t>r$&gt; runif(50) |&gt; efun::clipboard_writeto()</t>
   </si>
 </sst>
 </file>
@@ -734,20 +897,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E54"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
@@ -755,7 +923,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -768,118 +936,153 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="6" t="s">
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
@@ -888,360 +1091,486 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="5" t="s">
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:G53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G53">
+      <sortCondition ref="F3:F53"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
